--- a/resources/data/codinglist.xlsx
+++ b/resources/data/codinglist.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETC\seoulyeonsu\resources\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="22710" windowHeight="8640"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="22710" windowHeight="8640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="화면목록" sheetId="1" r:id="rId1"/>
     <sheet name="원본-화면목록" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -802,9 +807,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -819,6 +821,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -844,6 +849,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -892,7 +900,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -927,7 +935,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1138,7 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AB17" sqref="AB17"/>
     </sheetView>
@@ -1189,47 +1197,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
     </row>
     <row r="2" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
@@ -1240,10 +1248,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="60"/>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="55"/>
+      <c r="F2" s="54"/>
       <c r="G2" s="60" t="s">
         <v>14</v>
       </c>
@@ -1260,77 +1268,77 @@
       <c r="P2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="58" t="s">
+      <c r="R2" s="55"/>
+      <c r="S2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="59" t="s">
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="AJ2" s="59"/>
+      <c r="AJ2" s="58"/>
       <c r="AK2" s="18"/>
       <c r="AL2" s="19"/>
     </row>
     <row r="3" spans="1:39" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
@@ -5314,65 +5322,65 @@
       </c>
     </row>
     <row r="33" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="54"/>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="54"/>
-      <c r="AE33" s="54"/>
-      <c r="AF33" s="54"/>
-      <c r="AG33" s="54"/>
-      <c r="AH33" s="54"/>
-      <c r="AI33" s="54"/>
-      <c r="AJ33" s="54"/>
-      <c r="AK33" s="54"/>
-      <c r="AL33" s="54"/>
-      <c r="AM33" s="54"/>
+      <c r="A33" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="59"/>
+      <c r="AG33" s="59"/>
+      <c r="AH33" s="59"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="59"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="59"/>
+      <c r="AM33" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A33:AM33"/>
+    <mergeCell ref="A3:AM3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A1:AM1"/>
     <mergeCell ref="S2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="A3:AM3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A33:AM33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5380,8 +5388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/resources/data/codinglist.xlsx
+++ b/resources/data/codinglist.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="115">
   <si>
     <t>]}</t>
   </si>
@@ -366,6 +366,112 @@
   </si>
   <si>
     <t>ui_guide</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의게시판</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>분실물신고</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_center/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>inquiry_list</t>
+  </si>
+  <si>
+    <t>faq_list</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_list</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_list</t>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_view</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>inquiry_view</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>inquiry_write</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>inquiry_modify</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lost_view</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lost_write</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lost_list</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lost_modify</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_view</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,11 +913,8 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -830,6 +933,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1144,11 +1253,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AM43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB17" sqref="AB17"/>
+      <pane ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:AM29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -1197,148 +1306,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
     </row>
     <row r="2" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="54" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="60" t="s">
+      <c r="F2" s="61"/>
+      <c r="G2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="60"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="15"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
       <c r="O2" s="16"/>
       <c r="P2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="57" t="s">
+      <c r="R2" s="62"/>
+      <c r="S2" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="58" t="s">
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AJ2" s="58"/>
+      <c r="AJ2" s="57"/>
       <c r="AK2" s="18"/>
       <c r="AL2" s="19"/>
     </row>
     <row r="3" spans="1:39" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
@@ -3126,7 +3235,7 @@
       </c>
       <c r="D17" s="32">
         <f>'원본-화면목록'!B14</f>
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>40</v>
@@ -3173,9 +3282,9 @@
       <c r="Q17" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="R17" s="37">
+      <c r="R17" s="37" t="str">
         <f>'원본-화면목록'!J14</f>
-        <v>0</v>
+        <v>notice_list</v>
       </c>
       <c r="S17" s="38" t="s">
         <v>4</v>
@@ -3189,14 +3298,14 @@
       </c>
       <c r="V17" s="37" t="str">
         <f>'원본-화면목록'!L14</f>
-        <v>서브1</v>
+        <v>공지사항</v>
       </c>
       <c r="W17" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="X17" s="37">
+      <c r="X17" s="37" t="str">
         <f>'원본-화면목록'!M14</f>
-        <v>0</v>
+        <v>목록</v>
       </c>
       <c r="Y17" s="38" t="s">
         <v>7</v>
@@ -3238,7 +3347,7 @@
       </c>
       <c r="AJ17" s="40" t="str">
         <f>'원본-화면목록'!S14</f>
-        <v>/html/</v>
+        <v>/html/cs_center/</v>
       </c>
       <c r="AK17" s="39" t="s">
         <v>57</v>
@@ -3255,7 +3364,7 @@
       <c r="A18" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="31" t="str">
+      <c r="B18" s="54" t="str">
         <f>'원본-화면목록'!A15</f>
         <v>대기</v>
       </c>
@@ -3264,7 +3373,7 @@
       </c>
       <c r="D18" s="32">
         <f>'원본-화면목록'!B15</f>
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>40</v>
@@ -3311,9 +3420,9 @@
       <c r="Q18" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="37">
+      <c r="R18" s="37" t="str">
         <f>'원본-화면목록'!J15</f>
-        <v>0</v>
+        <v>notice_view</v>
       </c>
       <c r="S18" s="38" t="s">
         <v>4</v>
@@ -3325,16 +3434,16 @@
       <c r="U18" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="V18" s="37" t="str">
+      <c r="V18" s="37">
         <f>'원본-화면목록'!L15</f>
-        <v>서브2</v>
+        <v>0</v>
       </c>
       <c r="W18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="X18" s="37">
+      <c r="X18" s="37" t="str">
         <f>'원본-화면목록'!M15</f>
-        <v>0</v>
+        <v>상세</v>
       </c>
       <c r="Y18" s="38" t="s">
         <v>7</v>
@@ -3376,7 +3485,7 @@
       </c>
       <c r="AJ18" s="40" t="str">
         <f>'원본-화면목록'!S15</f>
-        <v>/html/</v>
+        <v>/html/cs_center/</v>
       </c>
       <c r="AK18" s="39" t="s">
         <v>57</v>
@@ -3393,7 +3502,7 @@
       <c r="A19" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="31" t="str">
+      <c r="B19" s="54" t="str">
         <f>'원본-화면목록'!A16</f>
         <v>대기</v>
       </c>
@@ -3402,7 +3511,7 @@
       </c>
       <c r="D19" s="32">
         <f>'원본-화면목록'!B16</f>
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>40</v>
@@ -3449,9 +3558,9 @@
       <c r="Q19" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="R19" s="37">
+      <c r="R19" s="37" t="str">
         <f>'원본-화면목록'!J16</f>
-        <v>0</v>
+        <v>faq_list</v>
       </c>
       <c r="S19" s="38" t="s">
         <v>4</v>
@@ -3465,7 +3574,7 @@
       </c>
       <c r="V19" s="37" t="str">
         <f>'원본-화면목록'!L16</f>
-        <v>서브3</v>
+        <v>FAQ</v>
       </c>
       <c r="W19" s="38" t="s">
         <v>6</v>
@@ -3514,7 +3623,7 @@
       </c>
       <c r="AJ19" s="40" t="str">
         <f>'원본-화면목록'!S16</f>
-        <v>/html/</v>
+        <v>/html/cs_center/</v>
       </c>
       <c r="AK19" s="39" t="s">
         <v>57</v>
@@ -3531,7 +3640,7 @@
       <c r="A20" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="31" t="str">
+      <c r="B20" s="54" t="str">
         <f>'원본-화면목록'!A17</f>
         <v>대기</v>
       </c>
@@ -3540,7 +3649,7 @@
       </c>
       <c r="D20" s="32">
         <f>'원본-화면목록'!B17</f>
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>40</v>
@@ -3587,30 +3696,30 @@
       <c r="Q20" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="37">
+      <c r="R20" s="37" t="str">
         <f>'원본-화면목록'!J17</f>
-        <v>0</v>
+        <v>inquiry_list</v>
       </c>
       <c r="S20" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="T20" s="37" t="str">
+      <c r="T20" s="37">
         <f>'원본-화면목록'!K17</f>
-        <v>참여마당</v>
+        <v>0</v>
       </c>
       <c r="U20" s="38" t="s">
         <v>5</v>
       </c>
       <c r="V20" s="37" t="str">
         <f>'원본-화면목록'!L17</f>
-        <v>서브1</v>
+        <v>문의게시판</v>
       </c>
       <c r="W20" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="X20" s="37">
+      <c r="X20" s="37" t="str">
         <f>'원본-화면목록'!M17</f>
-        <v>0</v>
+        <v>목록</v>
       </c>
       <c r="Y20" s="38" t="s">
         <v>7</v>
@@ -3652,7 +3761,7 @@
       </c>
       <c r="AJ20" s="40" t="str">
         <f>'원본-화면목록'!S17</f>
-        <v>/html/</v>
+        <v>/html/cs_center/</v>
       </c>
       <c r="AK20" s="39" t="s">
         <v>57</v>
@@ -3669,7 +3778,7 @@
       <c r="A21" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="31" t="str">
+      <c r="B21" s="54" t="str">
         <f>'원본-화면목록'!A18</f>
         <v>대기</v>
       </c>
@@ -3678,7 +3787,7 @@
       </c>
       <c r="D21" s="32">
         <f>'원본-화면목록'!B18</f>
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>40</v>
@@ -3725,9 +3834,9 @@
       <c r="Q21" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="37">
+      <c r="R21" s="37" t="str">
         <f>'원본-화면목록'!J18</f>
-        <v>0</v>
+        <v>inquiry_view</v>
       </c>
       <c r="S21" s="38" t="s">
         <v>4</v>
@@ -3739,16 +3848,16 @@
       <c r="U21" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="37" t="str">
+      <c r="V21" s="37">
         <f>'원본-화면목록'!L18</f>
-        <v>서브2</v>
+        <v>0</v>
       </c>
       <c r="W21" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="X21" s="37">
+      <c r="X21" s="37" t="str">
         <f>'원본-화면목록'!M18</f>
-        <v>0</v>
+        <v>상세</v>
       </c>
       <c r="Y21" s="38" t="s">
         <v>7</v>
@@ -3790,7 +3899,7 @@
       </c>
       <c r="AJ21" s="40" t="str">
         <f>'원본-화면목록'!S18</f>
-        <v>/html/</v>
+        <v>/html/cs_center/</v>
       </c>
       <c r="AK21" s="39" t="s">
         <v>57</v>
@@ -3807,7 +3916,7 @@
       <c r="A22" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="31" t="str">
+      <c r="B22" s="54" t="str">
         <f>'원본-화면목록'!A19</f>
         <v>대기</v>
       </c>
@@ -3816,7 +3925,7 @@
       </c>
       <c r="D22" s="32">
         <f>'원본-화면목록'!B19</f>
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>40</v>
@@ -3863,9 +3972,9 @@
       <c r="Q22" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="37">
+      <c r="R22" s="37" t="str">
         <f>'원본-화면목록'!J19</f>
-        <v>0</v>
+        <v>inquiry_write</v>
       </c>
       <c r="S22" s="38" t="s">
         <v>4</v>
@@ -3877,16 +3986,16 @@
       <c r="U22" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="V22" s="37" t="str">
+      <c r="V22" s="37">
         <f>'원본-화면목록'!L19</f>
-        <v>서브3</v>
+        <v>0</v>
       </c>
       <c r="W22" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="X22" s="37">
+      <c r="X22" s="37" t="str">
         <f>'원본-화면목록'!M19</f>
-        <v>0</v>
+        <v>글쓰기</v>
       </c>
       <c r="Y22" s="38" t="s">
         <v>7</v>
@@ -3928,7 +4037,7 @@
       </c>
       <c r="AJ22" s="40" t="str">
         <f>'원본-화면목록'!S19</f>
-        <v>/html/</v>
+        <v>/html/cs_center/</v>
       </c>
       <c r="AK22" s="39" t="s">
         <v>57</v>
@@ -3945,7 +4054,7 @@
       <c r="A23" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="31" t="str">
+      <c r="B23" s="54" t="str">
         <f>'원본-화면목록'!A20</f>
         <v>대기</v>
       </c>
@@ -3954,7 +4063,7 @@
       </c>
       <c r="D23" s="32">
         <f>'원본-화면목록'!B20</f>
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>40</v>
@@ -4001,30 +4110,30 @@
       <c r="Q23" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="37">
+      <c r="R23" s="37" t="str">
         <f>'원본-화면목록'!J20</f>
-        <v>0</v>
+        <v>inquiry_modify</v>
       </c>
       <c r="S23" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="T23" s="37" t="str">
+      <c r="T23" s="37">
         <f>'원본-화면목록'!K20</f>
-        <v>수련원소개</v>
+        <v>0</v>
       </c>
       <c r="U23" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="V23" s="37" t="str">
+      <c r="V23" s="37">
         <f>'원본-화면목록'!L20</f>
-        <v>서브1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="X23" s="37">
+      <c r="X23" s="37" t="str">
         <f>'원본-화면목록'!M20</f>
-        <v>0</v>
+        <v>수정</v>
       </c>
       <c r="Y23" s="38" t="s">
         <v>7</v>
@@ -4066,7 +4175,7 @@
       </c>
       <c r="AJ23" s="40" t="str">
         <f>'원본-화면목록'!S20</f>
-        <v>/html/</v>
+        <v>/html/cs_center/</v>
       </c>
       <c r="AK23" s="39" t="s">
         <v>57</v>
@@ -4083,7 +4192,7 @@
       <c r="A24" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="31" t="str">
+      <c r="B24" s="54" t="str">
         <f>'원본-화면목록'!A21</f>
         <v>대기</v>
       </c>
@@ -4092,7 +4201,7 @@
       </c>
       <c r="D24" s="32">
         <f>'원본-화면목록'!B21</f>
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>40</v>
@@ -4139,9 +4248,9 @@
       <c r="Q24" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="37">
+      <c r="R24" s="37" t="str">
         <f>'원본-화면목록'!J21</f>
-        <v>0</v>
+        <v>event_list</v>
       </c>
       <c r="S24" s="38" t="s">
         <v>4</v>
@@ -4155,14 +4264,14 @@
       </c>
       <c r="V24" s="37" t="str">
         <f>'원본-화면목록'!L21</f>
-        <v>서브2</v>
+        <v>이벤트</v>
       </c>
       <c r="W24" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="X24" s="37">
+      <c r="X24" s="37" t="str">
         <f>'원본-화면목록'!M21</f>
-        <v>0</v>
+        <v>목록</v>
       </c>
       <c r="Y24" s="38" t="s">
         <v>7</v>
@@ -4204,7 +4313,7 @@
       </c>
       <c r="AJ24" s="40" t="str">
         <f>'원본-화면목록'!S21</f>
-        <v>/html/</v>
+        <v>/html/cs_center/</v>
       </c>
       <c r="AK24" s="39" t="s">
         <v>57</v>
@@ -4221,7 +4330,7 @@
       <c r="A25" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="31" t="str">
+      <c r="B25" s="54" t="str">
         <f>'원본-화면목록'!A22</f>
         <v>대기</v>
       </c>
@@ -4230,7 +4339,7 @@
       </c>
       <c r="D25" s="32">
         <f>'원본-화면목록'!B22</f>
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>40</v>
@@ -4277,9 +4386,9 @@
       <c r="Q25" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="R25" s="37">
+      <c r="R25" s="37" t="str">
         <f>'원본-화면목록'!J22</f>
-        <v>0</v>
+        <v>event_view</v>
       </c>
       <c r="S25" s="38" t="s">
         <v>4</v>
@@ -4291,16 +4400,16 @@
       <c r="U25" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="V25" s="37" t="str">
+      <c r="V25" s="37">
         <f>'원본-화면목록'!L22</f>
-        <v>서브3</v>
+        <v>0</v>
       </c>
       <c r="W25" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="X25" s="37">
+      <c r="X25" s="37" t="str">
         <f>'원본-화면목록'!M22</f>
-        <v>0</v>
+        <v>상세</v>
       </c>
       <c r="Y25" s="38" t="s">
         <v>7</v>
@@ -4342,7 +4451,7 @@
       </c>
       <c r="AJ25" s="40" t="str">
         <f>'원본-화면목록'!S22</f>
-        <v>/html/</v>
+        <v>/html/cs_center/</v>
       </c>
       <c r="AK25" s="39" t="s">
         <v>57</v>
@@ -4359,7 +4468,7 @@
       <c r="A26" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="31" t="str">
+      <c r="B26" s="54" t="str">
         <f>'원본-화면목록'!A23</f>
         <v>대기</v>
       </c>
@@ -4368,7 +4477,7 @@
       </c>
       <c r="D26" s="32">
         <f>'원본-화면목록'!B23</f>
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>40</v>
@@ -4415,30 +4524,30 @@
       <c r="Q26" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="R26" s="37">
+      <c r="R26" s="37" t="str">
         <f>'원본-화면목록'!J23</f>
-        <v>0</v>
+        <v>lost_list</v>
       </c>
       <c r="S26" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="T26" s="37" t="str">
+      <c r="T26" s="37">
         <f>'원본-화면목록'!K23</f>
-        <v>마이페이지</v>
+        <v>0</v>
       </c>
       <c r="U26" s="38" t="s">
         <v>5</v>
       </c>
       <c r="V26" s="37" t="str">
         <f>'원본-화면목록'!L23</f>
-        <v>서브1</v>
+        <v>분실물신고</v>
       </c>
       <c r="W26" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="X26" s="37">
+      <c r="X26" s="37" t="str">
         <f>'원본-화면목록'!M23</f>
-        <v>0</v>
+        <v>목록</v>
       </c>
       <c r="Y26" s="38" t="s">
         <v>7</v>
@@ -4480,7 +4589,7 @@
       </c>
       <c r="AJ26" s="40" t="str">
         <f>'원본-화면목록'!S23</f>
-        <v>/html/</v>
+        <v>/html/cs_center/</v>
       </c>
       <c r="AK26" s="39" t="s">
         <v>57</v>
@@ -4497,7 +4606,7 @@
       <c r="A27" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="31" t="str">
+      <c r="B27" s="54" t="str">
         <f>'원본-화면목록'!A24</f>
         <v>대기</v>
       </c>
@@ -4506,7 +4615,7 @@
       </c>
       <c r="D27" s="32">
         <f>'원본-화면목록'!B24</f>
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>40</v>
@@ -4553,9 +4662,9 @@
       <c r="Q27" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="R27" s="37">
+      <c r="R27" s="37" t="str">
         <f>'원본-화면목록'!J24</f>
-        <v>0</v>
+        <v>lost_view</v>
       </c>
       <c r="S27" s="38" t="s">
         <v>4</v>
@@ -4567,16 +4676,16 @@
       <c r="U27" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="V27" s="37" t="str">
+      <c r="V27" s="37">
         <f>'원본-화면목록'!L24</f>
-        <v>서브2</v>
+        <v>0</v>
       </c>
       <c r="W27" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="X27" s="37">
+      <c r="X27" s="37" t="str">
         <f>'원본-화면목록'!M24</f>
-        <v>0</v>
+        <v>상세</v>
       </c>
       <c r="Y27" s="38" t="s">
         <v>7</v>
@@ -4618,7 +4727,7 @@
       </c>
       <c r="AJ27" s="40" t="str">
         <f>'원본-화면목록'!S24</f>
-        <v>/html/</v>
+        <v>/html/cs_center/</v>
       </c>
       <c r="AK27" s="39" t="s">
         <v>57</v>
@@ -4635,7 +4744,7 @@
       <c r="A28" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="31" t="str">
+      <c r="B28" s="54" t="str">
         <f>'원본-화면목록'!A25</f>
         <v>대기</v>
       </c>
@@ -4644,7 +4753,7 @@
       </c>
       <c r="D28" s="32">
         <f>'원본-화면목록'!B25</f>
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>40</v>
@@ -4691,9 +4800,9 @@
       <c r="Q28" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="R28" s="37">
+      <c r="R28" s="37" t="str">
         <f>'원본-화면목록'!J25</f>
-        <v>0</v>
+        <v>lost_write</v>
       </c>
       <c r="S28" s="38" t="s">
         <v>4</v>
@@ -4705,16 +4814,16 @@
       <c r="U28" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="V28" s="37" t="str">
+      <c r="V28" s="37">
         <f>'원본-화면목록'!L25</f>
-        <v>서브3</v>
+        <v>0</v>
       </c>
       <c r="W28" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="X28" s="37">
+      <c r="X28" s="37" t="str">
         <f>'원본-화면목록'!M25</f>
-        <v>0</v>
+        <v>글쓰기</v>
       </c>
       <c r="Y28" s="38" t="s">
         <v>7</v>
@@ -4756,7 +4865,7 @@
       </c>
       <c r="AJ28" s="40" t="str">
         <f>'원본-화면목록'!S25</f>
-        <v>/html/</v>
+        <v>/html/cs_center/</v>
       </c>
       <c r="AK28" s="39" t="s">
         <v>57</v>
@@ -4773,7 +4882,7 @@
       <c r="A29" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="31" t="str">
+      <c r="B29" s="54" t="str">
         <f>'원본-화면목록'!A26</f>
         <v>대기</v>
       </c>
@@ -4782,7 +4891,7 @@
       </c>
       <c r="D29" s="32">
         <f>'원본-화면목록'!B26</f>
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>40</v>
@@ -4829,16 +4938,16 @@
       <c r="Q29" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="37">
+      <c r="R29" s="37" t="str">
         <f>'원본-화면목록'!J26</f>
-        <v>0</v>
+        <v>lost_modify</v>
       </c>
       <c r="S29" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="T29" s="37" t="str">
+      <c r="T29" s="37">
         <f>'원본-화면목록'!K26</f>
-        <v>로그인</v>
+        <v>0</v>
       </c>
       <c r="U29" s="38" t="s">
         <v>5</v>
@@ -4850,9 +4959,9 @@
       <c r="W29" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="X29" s="37">
+      <c r="X29" s="37" t="str">
         <f>'원본-화면목록'!M26</f>
-        <v>0</v>
+        <v>수정</v>
       </c>
       <c r="Y29" s="38" t="s">
         <v>7</v>
@@ -4894,7 +5003,7 @@
       </c>
       <c r="AJ29" s="40" t="str">
         <f>'원본-화면목록'!S26</f>
-        <v>/html/</v>
+        <v>/html/cs_center/</v>
       </c>
       <c r="AK29" s="39" t="s">
         <v>57</v>
@@ -4976,7 +5085,7 @@
       </c>
       <c r="T30" s="37" t="str">
         <f>'원본-화면목록'!K27</f>
-        <v>회원가입</v>
+        <v>참여마당</v>
       </c>
       <c r="U30" s="38" t="s">
         <v>5</v>
@@ -5321,52 +5430,1435 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="59"/>
-      <c r="AH33" s="59"/>
-      <c r="AI33" s="59"/>
-      <c r="AJ33" s="59"/>
-      <c r="AK33" s="59"/>
-      <c r="AL33" s="59"/>
-      <c r="AM33" s="59"/>
+    <row r="33" spans="1:39" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="31" t="str">
+        <f>'원본-화면목록'!A30</f>
+        <v>대기</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="32">
+        <f>'원본-화면목록'!B30</f>
+        <v>43407</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="32" t="str">
+        <f>'원본-화면목록'!C30</f>
+        <v>미정</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="32" t="str">
+        <f>'원본-화면목록'!D30</f>
+        <v>미정</v>
+      </c>
+      <c r="I33" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="17">
+        <f>'원본-화면목록'!F30</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L33" s="17">
+        <f>'원본-화면목록'!G30</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" s="34">
+        <f>'원본-화면목록'!H30</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P33" s="34">
+        <f>'원본-화면목록'!I30</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="37">
+        <f>'원본-화면목록'!J30</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="37" t="str">
+        <f>'원본-화면목록'!K30</f>
+        <v>수련원소개</v>
+      </c>
+      <c r="U33" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" s="37" t="str">
+        <f>'원본-화면목록'!L30</f>
+        <v>서브1</v>
+      </c>
+      <c r="W33" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="X33" s="37">
+        <f>'원본-화면목록'!M30</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z33" s="37">
+        <f>'원본-화면목록'!N30</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB33" s="37">
+        <f>'원본-화면목록'!O30</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD33" s="37">
+        <f>'원본-화면목록'!P30</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF33" s="37">
+        <f>'원본-화면목록'!Q30</f>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH33" s="37">
+        <f>'원본-화면목록'!R30</f>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ33" s="40" t="str">
+        <f>'원본-화면목록'!S30</f>
+        <v>/html/</v>
+      </c>
+      <c r="AK33" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL33" s="19">
+        <f>'원본-화면목록'!T30</f>
+        <v>0</v>
+      </c>
+      <c r="AM33" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="31" t="str">
+        <f>'원본-화면목록'!A31</f>
+        <v>대기</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="32">
+        <f>'원본-화면목록'!B31</f>
+        <v>43407</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="32" t="str">
+        <f>'원본-화면목록'!C31</f>
+        <v>미정</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="32" t="str">
+        <f>'원본-화면목록'!D31</f>
+        <v>미정</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="17">
+        <f>'원본-화면목록'!F31</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" s="17">
+        <f>'원본-화면목록'!G31</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N34" s="34">
+        <f>'원본-화면목록'!H31</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P34" s="34">
+        <f>'원본-화면목록'!I31</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="R34" s="37">
+        <f>'원본-화면목록'!J31</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="T34" s="37">
+        <f>'원본-화면목록'!K31</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="V34" s="37" t="str">
+        <f>'원본-화면목록'!L31</f>
+        <v>서브2</v>
+      </c>
+      <c r="W34" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="X34" s="37">
+        <f>'원본-화면목록'!M31</f>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z34" s="37">
+        <f>'원본-화면목록'!N31</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB34" s="37">
+        <f>'원본-화면목록'!O31</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD34" s="37">
+        <f>'원본-화면목록'!P31</f>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF34" s="37">
+        <f>'원본-화면목록'!Q31</f>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH34" s="37">
+        <f>'원본-화면목록'!R31</f>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ34" s="40" t="str">
+        <f>'원본-화면목록'!S31</f>
+        <v>/html/</v>
+      </c>
+      <c r="AK34" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL34" s="19">
+        <f>'원본-화면목록'!T31</f>
+        <v>0</v>
+      </c>
+      <c r="AM34" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="31" t="str">
+        <f>'원본-화면목록'!A32</f>
+        <v>대기</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="32">
+        <f>'원본-화면목록'!B32</f>
+        <v>43407</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="32" t="str">
+        <f>'원본-화면목록'!C32</f>
+        <v>미정</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="32" t="str">
+        <f>'원본-화면목록'!D32</f>
+        <v>미정</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="17">
+        <f>'원본-화면목록'!F32</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35" s="17">
+        <f>'원본-화면목록'!G32</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N35" s="34">
+        <f>'원본-화면목록'!H32</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P35" s="34">
+        <f>'원본-화면목록'!I32</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="37">
+        <f>'원본-화면목록'!J32</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="37">
+        <f>'원본-화면목록'!K32</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="37" t="str">
+        <f>'원본-화면목록'!L32</f>
+        <v>서브3</v>
+      </c>
+      <c r="W35" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="X35" s="37">
+        <f>'원본-화면목록'!M32</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z35" s="37">
+        <f>'원본-화면목록'!N32</f>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB35" s="37">
+        <f>'원본-화면목록'!O32</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD35" s="37">
+        <f>'원본-화면목록'!P32</f>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF35" s="37">
+        <f>'원본-화면목록'!Q32</f>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH35" s="37">
+        <f>'원본-화면목록'!R32</f>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ35" s="40" t="str">
+        <f>'원본-화면목록'!S32</f>
+        <v>/html/</v>
+      </c>
+      <c r="AK35" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL35" s="19">
+        <f>'원본-화면목록'!T32</f>
+        <v>0</v>
+      </c>
+      <c r="AM35" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="31" t="str">
+        <f>'원본-화면목록'!A33</f>
+        <v>대기</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="32">
+        <f>'원본-화면목록'!B33</f>
+        <v>43407</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="32" t="str">
+        <f>'원본-화면목록'!C33</f>
+        <v>미정</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="32" t="str">
+        <f>'원본-화면목록'!D33</f>
+        <v>미정</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="17">
+        <f>'원본-화면목록'!F33</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L36" s="17">
+        <f>'원본-화면목록'!G33</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N36" s="34">
+        <f>'원본-화면목록'!H33</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P36" s="34">
+        <f>'원본-화면목록'!I33</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="R36" s="37">
+        <f>'원본-화면목록'!J33</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="T36" s="37" t="str">
+        <f>'원본-화면목록'!K33</f>
+        <v>마이페이지</v>
+      </c>
+      <c r="U36" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="V36" s="37" t="str">
+        <f>'원본-화면목록'!L33</f>
+        <v>서브1</v>
+      </c>
+      <c r="W36" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="X36" s="37">
+        <f>'원본-화면목록'!M33</f>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z36" s="37">
+        <f>'원본-화면목록'!N33</f>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB36" s="37">
+        <f>'원본-화면목록'!O33</f>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD36" s="37">
+        <f>'원본-화면목록'!P33</f>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF36" s="37">
+        <f>'원본-화면목록'!Q33</f>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH36" s="37">
+        <f>'원본-화면목록'!R33</f>
+        <v>0</v>
+      </c>
+      <c r="AI36" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ36" s="40" t="str">
+        <f>'원본-화면목록'!S33</f>
+        <v>/html/</v>
+      </c>
+      <c r="AK36" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL36" s="19">
+        <f>'원본-화면목록'!T33</f>
+        <v>0</v>
+      </c>
+      <c r="AM36" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="31" t="str">
+        <f>'원본-화면목록'!A34</f>
+        <v>대기</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="32">
+        <f>'원본-화면목록'!B34</f>
+        <v>43407</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="32" t="str">
+        <f>'원본-화면목록'!C34</f>
+        <v>미정</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="32" t="str">
+        <f>'원본-화면목록'!D34</f>
+        <v>미정</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="17">
+        <f>'원본-화면목록'!F34</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L37" s="17">
+        <f>'원본-화면목록'!G34</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N37" s="34">
+        <f>'원본-화면목록'!H34</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P37" s="34">
+        <f>'원본-화면목록'!I34</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="R37" s="37">
+        <f>'원본-화면목록'!J34</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="T37" s="37">
+        <f>'원본-화면목록'!K34</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="V37" s="37" t="str">
+        <f>'원본-화면목록'!L34</f>
+        <v>서브2</v>
+      </c>
+      <c r="W37" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="X37" s="37">
+        <f>'원본-화면목록'!M34</f>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z37" s="37">
+        <f>'원본-화면목록'!N34</f>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB37" s="37">
+        <f>'원본-화면목록'!O34</f>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD37" s="37">
+        <f>'원본-화면목록'!P34</f>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF37" s="37">
+        <f>'원본-화면목록'!Q34</f>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH37" s="37">
+        <f>'원본-화면목록'!R34</f>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ37" s="40" t="str">
+        <f>'원본-화면목록'!S34</f>
+        <v>/html/</v>
+      </c>
+      <c r="AK37" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL37" s="19">
+        <f>'원본-화면목록'!T34</f>
+        <v>0</v>
+      </c>
+      <c r="AM37" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="31" t="str">
+        <f>'원본-화면목록'!A35</f>
+        <v>대기</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="32">
+        <f>'원본-화면목록'!B35</f>
+        <v>43407</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="32" t="str">
+        <f>'원본-화면목록'!C35</f>
+        <v>미정</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="32" t="str">
+        <f>'원본-화면목록'!D35</f>
+        <v>미정</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="17">
+        <f>'원본-화면목록'!F35</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L38" s="17">
+        <f>'원본-화면목록'!G35</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N38" s="34">
+        <f>'원본-화면목록'!H35</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P38" s="34">
+        <f>'원본-화면목록'!I35</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="37">
+        <f>'원본-화면목록'!J35</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="T38" s="37">
+        <f>'원본-화면목록'!K35</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="V38" s="37" t="str">
+        <f>'원본-화면목록'!L35</f>
+        <v>서브3</v>
+      </c>
+      <c r="W38" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="X38" s="37">
+        <f>'원본-화면목록'!M35</f>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z38" s="37">
+        <f>'원본-화면목록'!N35</f>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB38" s="37">
+        <f>'원본-화면목록'!O35</f>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD38" s="37">
+        <f>'원본-화면목록'!P35</f>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF38" s="37">
+        <f>'원본-화면목록'!Q35</f>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH38" s="37">
+        <f>'원본-화면목록'!R35</f>
+        <v>0</v>
+      </c>
+      <c r="AI38" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ38" s="40" t="str">
+        <f>'원본-화면목록'!S35</f>
+        <v>/html/</v>
+      </c>
+      <c r="AK38" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL38" s="19">
+        <f>'원본-화면목록'!T35</f>
+        <v>0</v>
+      </c>
+      <c r="AM38" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="31" t="str">
+        <f>'원본-화면목록'!A36</f>
+        <v>대기</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="32">
+        <f>'원본-화면목록'!B36</f>
+        <v>43407</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="32" t="str">
+        <f>'원본-화면목록'!C36</f>
+        <v>미정</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="32" t="str">
+        <f>'원본-화면목록'!D36</f>
+        <v>미정</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="17">
+        <f>'원본-화면목록'!F36</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L39" s="17">
+        <f>'원본-화면목록'!G36</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N39" s="34">
+        <f>'원본-화면목록'!H36</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P39" s="34">
+        <f>'원본-화면목록'!I36</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="R39" s="37">
+        <f>'원본-화면목록'!J36</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="T39" s="37" t="str">
+        <f>'원본-화면목록'!K36</f>
+        <v>로그인</v>
+      </c>
+      <c r="U39" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="V39" s="37">
+        <f>'원본-화면목록'!L36</f>
+        <v>0</v>
+      </c>
+      <c r="W39" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="X39" s="37">
+        <f>'원본-화면목록'!M36</f>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z39" s="37">
+        <f>'원본-화면목록'!N36</f>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB39" s="37">
+        <f>'원본-화면목록'!O36</f>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD39" s="37">
+        <f>'원본-화면목록'!P36</f>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF39" s="37">
+        <f>'원본-화면목록'!Q36</f>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH39" s="37">
+        <f>'원본-화면목록'!R36</f>
+        <v>0</v>
+      </c>
+      <c r="AI39" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ39" s="40" t="str">
+        <f>'원본-화면목록'!S36</f>
+        <v>/html/</v>
+      </c>
+      <c r="AK39" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL39" s="19">
+        <f>'원본-화면목록'!T36</f>
+        <v>0</v>
+      </c>
+      <c r="AM39" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="31" t="str">
+        <f>'원본-화면목록'!A37</f>
+        <v>대기</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="32">
+        <f>'원본-화면목록'!B37</f>
+        <v>43407</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="32" t="str">
+        <f>'원본-화면목록'!C37</f>
+        <v>미정</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="32" t="str">
+        <f>'원본-화면목록'!D37</f>
+        <v>미정</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" s="17">
+        <f>'원본-화면목록'!F37</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="17">
+        <f>'원본-화면목록'!G37</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N40" s="34">
+        <f>'원본-화면목록'!H37</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P40" s="34">
+        <f>'원본-화면목록'!I37</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="R40" s="37">
+        <f>'원본-화면목록'!J37</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="T40" s="37" t="str">
+        <f>'원본-화면목록'!K37</f>
+        <v>회원가입</v>
+      </c>
+      <c r="U40" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="V40" s="37" t="str">
+        <f>'원본-화면목록'!L37</f>
+        <v>서브1</v>
+      </c>
+      <c r="W40" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="X40" s="37">
+        <f>'원본-화면목록'!M37</f>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z40" s="37">
+        <f>'원본-화면목록'!N37</f>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB40" s="37">
+        <f>'원본-화면목록'!O37</f>
+        <v>0</v>
+      </c>
+      <c r="AC40" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD40" s="37">
+        <f>'원본-화면목록'!P37</f>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF40" s="37">
+        <f>'원본-화면목록'!Q37</f>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH40" s="37">
+        <f>'원본-화면목록'!R37</f>
+        <v>0</v>
+      </c>
+      <c r="AI40" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ40" s="40" t="str">
+        <f>'원본-화면목록'!S37</f>
+        <v>/html/</v>
+      </c>
+      <c r="AK40" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL40" s="19">
+        <f>'원본-화면목록'!T37</f>
+        <v>0</v>
+      </c>
+      <c r="AM40" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="31" t="str">
+        <f>'원본-화면목록'!A38</f>
+        <v>대기</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="32">
+        <f>'원본-화면목록'!B38</f>
+        <v>43407</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="32" t="str">
+        <f>'원본-화면목록'!C38</f>
+        <v>미정</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="32" t="str">
+        <f>'원본-화면목록'!D38</f>
+        <v>미정</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" s="17">
+        <f>'원본-화면목록'!F38</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L41" s="17">
+        <f>'원본-화면목록'!G38</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N41" s="34">
+        <f>'원본-화면목록'!H38</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P41" s="34">
+        <f>'원본-화면목록'!I38</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="37">
+        <f>'원본-화면목록'!J38</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="37">
+        <f>'원본-화면목록'!K38</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="37" t="str">
+        <f>'원본-화면목록'!L38</f>
+        <v>서브2</v>
+      </c>
+      <c r="W41" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="X41" s="37">
+        <f>'원본-화면목록'!M38</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z41" s="37">
+        <f>'원본-화면목록'!N38</f>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB41" s="37">
+        <f>'원본-화면목록'!O38</f>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD41" s="37">
+        <f>'원본-화면목록'!P38</f>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF41" s="37">
+        <f>'원본-화면목록'!Q38</f>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH41" s="37">
+        <f>'원본-화면목록'!R38</f>
+        <v>0</v>
+      </c>
+      <c r="AI41" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ41" s="40" t="str">
+        <f>'원본-화면목록'!S38</f>
+        <v>/html/</v>
+      </c>
+      <c r="AK41" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL41" s="19">
+        <f>'원본-화면목록'!T38</f>
+        <v>0</v>
+      </c>
+      <c r="AM41" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="31" t="str">
+        <f>'원본-화면목록'!A39</f>
+        <v>대기</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="32">
+        <f>'원본-화면목록'!B39</f>
+        <v>43407</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="32" t="str">
+        <f>'원본-화면목록'!C39</f>
+        <v>미정</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" s="32" t="str">
+        <f>'원본-화면목록'!D39</f>
+        <v>미정</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" s="17">
+        <f>'원본-화면목록'!F39</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L42" s="17">
+        <f>'원본-화면목록'!G39</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N42" s="34">
+        <f>'원본-화면목록'!H39</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P42" s="34">
+        <f>'원본-화면목록'!I39</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" s="37">
+        <f>'원본-화면목록'!J39</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="T42" s="37">
+        <f>'원본-화면목록'!K39</f>
+        <v>0</v>
+      </c>
+      <c r="U42" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="37" t="str">
+        <f>'원본-화면목록'!L39</f>
+        <v>서브3</v>
+      </c>
+      <c r="W42" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="X42" s="37">
+        <f>'원본-화면목록'!M39</f>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z42" s="37">
+        <f>'원본-화면목록'!N39</f>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB42" s="37">
+        <f>'원본-화면목록'!O39</f>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD42" s="37">
+        <f>'원본-화면목록'!P39</f>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF42" s="37">
+        <f>'원본-화면목록'!Q39</f>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH42" s="37">
+        <f>'원본-화면목록'!R39</f>
+        <v>0</v>
+      </c>
+      <c r="AI42" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ42" s="40" t="str">
+        <f>'원본-화면목록'!S39</f>
+        <v>/html/</v>
+      </c>
+      <c r="AK42" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL42" s="19">
+        <f>'원본-화면목록'!T39</f>
+        <v>0</v>
+      </c>
+      <c r="AM42" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="58"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="58"/>
+      <c r="U43" s="58"/>
+      <c r="V43" s="58"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="58"/>
+      <c r="Z43" s="58"/>
+      <c r="AA43" s="58"/>
+      <c r="AB43" s="58"/>
+      <c r="AC43" s="58"/>
+      <c r="AD43" s="58"/>
+      <c r="AE43" s="58"/>
+      <c r="AF43" s="58"/>
+      <c r="AG43" s="58"/>
+      <c r="AH43" s="58"/>
+      <c r="AI43" s="58"/>
+      <c r="AJ43" s="58"/>
+      <c r="AK43" s="58"/>
+      <c r="AL43" s="58"/>
+      <c r="AM43" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A33:AM33"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="S2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="A43:AM43"/>
     <mergeCell ref="A3:AM3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="C2:D2"/>
@@ -5374,9 +6866,6 @@
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="S2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5386,10 +6875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5552,7 +7041,7 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="7" t="str">
-        <f t="shared" ref="S3:S23" si="0">CONCATENATE(U3,V3)</f>
+        <f t="shared" ref="S3:S33" si="0">CONCATENATE(U3,V3)</f>
         <v>/html/guide/</v>
       </c>
       <c r="T3" s="7"/>
@@ -5968,7 +7457,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="9">
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>58</v>
@@ -5981,35 +7470,41 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="53"/>
+      <c r="J14" s="53" t="s">
+        <v>97</v>
+      </c>
       <c r="K14" s="11" t="s">
         <v>80</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="7" t="str">
-        <f t="shared" ref="S14" si="2">CONCATENATE(U14,V14)</f>
-        <v>/html/</v>
+        <f t="shared" ref="S14:S26" si="2">CONCATENATE(U14,V14)</f>
+        <v>/html/cs_center/</v>
       </c>
       <c r="T14" s="7"/>
       <c r="U14" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="V14" s="13"/>
+      <c r="V14" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="9">
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>58</v>
@@ -6021,34 +7516,38 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="53"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="53" t="s">
+        <v>106</v>
+      </c>
       <c r="K15" s="11"/>
-      <c r="L15" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="M15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>/html/</v>
+        <f t="shared" si="2"/>
+        <v>/html/cs_center/</v>
       </c>
       <c r="T15" s="7"/>
       <c r="U15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="V15" s="13"/>
+      <c r="V15" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="9">
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>58</v>
@@ -6061,10 +7560,12 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="53"/>
+      <c r="J16" s="53" t="s">
+        <v>95</v>
+      </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -6073,21 +7574,23 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>/html/</v>
+        <f t="shared" si="2"/>
+        <v>/html/cs_center/</v>
       </c>
       <c r="T16" s="7"/>
       <c r="U16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="V16" s="13"/>
+      <c r="V16" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="9">
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>58</v>
@@ -6100,35 +7603,39 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="11" t="s">
-        <v>81</v>
-      </c>
+      <c r="J17" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="11"/>
       <c r="L17" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>/html/</v>
+        <f t="shared" si="2"/>
+        <v>/html/cs_center/</v>
       </c>
       <c r="T17" s="7"/>
       <c r="U17" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="V17" s="13"/>
+      <c r="V17" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="9">
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>58</v>
@@ -6141,33 +7648,37 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="53"/>
+      <c r="J18" s="53" t="s">
+        <v>107</v>
+      </c>
       <c r="K18" s="11"/>
-      <c r="L18" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="M18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>/html/</v>
+        <f t="shared" si="2"/>
+        <v>/html/cs_center/</v>
       </c>
       <c r="T18" s="7"/>
       <c r="U18" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="V18" s="13"/>
+      <c r="V18" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="9">
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>58</v>
@@ -6180,33 +7691,37 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="53"/>
+      <c r="J19" s="53" t="s">
+        <v>108</v>
+      </c>
       <c r="K19" s="11"/>
-      <c r="L19" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="M19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>/html/</v>
+        <f t="shared" si="2"/>
+        <v>/html/cs_center/</v>
       </c>
       <c r="T19" s="7"/>
       <c r="U19" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="V19" s="13"/>
+      <c r="V19" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="9">
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>58</v>
@@ -6219,35 +7734,37 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20" s="11"/>
+      <c r="J20" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>/html/</v>
+        <f t="shared" si="2"/>
+        <v>/html/cs_center/</v>
       </c>
       <c r="T20" s="7"/>
       <c r="U20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="V20" s="13"/>
+      <c r="V20" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="9">
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>58</v>
@@ -6260,33 +7777,39 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="53"/>
+      <c r="J21" s="53" t="s">
+        <v>96</v>
+      </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="M21" s="11"/>
+        <v>91</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>/html/</v>
+        <f t="shared" si="2"/>
+        <v>/html/cs_center/</v>
       </c>
       <c r="T21" s="7"/>
       <c r="U21" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="V21" s="13"/>
+      <c r="V21" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="9">
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>58</v>
@@ -6299,33 +7822,37 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="53"/>
+      <c r="J22" s="53" t="s">
+        <v>114</v>
+      </c>
       <c r="K22" s="11"/>
-      <c r="L22" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="M22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>/html/</v>
+        <f t="shared" si="2"/>
+        <v>/html/cs_center/</v>
       </c>
       <c r="T22" s="7"/>
       <c r="U22" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="V22" s="13"/>
+      <c r="V22" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="9">
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>58</v>
@@ -6338,35 +7865,39 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="J23" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="11"/>
       <c r="L23" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="M23" s="11"/>
+        <v>92</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
       <c r="S23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>/html/</v>
+        <f t="shared" si="2"/>
+        <v>/html/cs_center/</v>
       </c>
       <c r="T23" s="7"/>
       <c r="U23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="V23" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="9">
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>58</v>
@@ -6379,33 +7910,37 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="53"/>
+      <c r="J24" s="53" t="s">
+        <v>110</v>
+      </c>
       <c r="K24" s="11"/>
-      <c r="L24" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="M24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="7" t="str">
-        <f t="shared" ref="S24:S29" si="3">CONCATENATE(U24,V24)</f>
-        <v>/html/</v>
+        <f t="shared" si="2"/>
+        <v>/html/cs_center/</v>
       </c>
       <c r="T24" s="7"/>
       <c r="U24" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="V24" s="13"/>
+      <c r="V24" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="9">
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>58</v>
@@ -6418,33 +7953,37 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="53"/>
+      <c r="J25" s="53" t="s">
+        <v>111</v>
+      </c>
       <c r="K25" s="11"/>
-      <c r="L25" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="M25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="S25" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>/html/</v>
+        <f t="shared" si="2"/>
+        <v>/html/cs_center/</v>
       </c>
       <c r="T25" s="7"/>
       <c r="U25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="V25" s="13"/>
+      <c r="V25" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="9">
-        <v>43407</v>
+        <v>43416</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>58</v>
@@ -6457,26 +7996,30 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="J26" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="11"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
+      <c r="M26" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
       <c r="S26" s="7" t="str">
-        <f t="shared" ref="S26" si="4">CONCATENATE(U26,V26)</f>
-        <v>/html/</v>
+        <f t="shared" si="2"/>
+        <v>/html/cs_center/</v>
       </c>
       <c r="T26" s="7"/>
       <c r="U26" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="V26" s="13"/>
+      <c r="V26" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -6498,7 +8041,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="53"/>
       <c r="K27" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L27" s="11" t="s">
         <v>75</v>
@@ -6510,7 +8053,7 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
       <c r="S27" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>/html/</v>
       </c>
       <c r="T27" s="7"/>
@@ -6549,7 +8092,7 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
       <c r="S28" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>/html/</v>
       </c>
       <c r="T28" s="7"/>
@@ -6588,7 +8131,7 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
       <c r="S29" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>/html/</v>
       </c>
       <c r="T29" s="7"/>
@@ -6596,6 +8139,402 @@
         <v>51</v>
       </c>
       <c r="V29" s="13"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="9">
+        <v>43407</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>/html/</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V30" s="13"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="9">
+        <v>43407</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>/html/</v>
+      </c>
+      <c r="T31" s="7"/>
+      <c r="U31" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V31" s="13"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="9">
+        <v>43407</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>/html/</v>
+      </c>
+      <c r="T32" s="7"/>
+      <c r="U32" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V32" s="13"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="9">
+        <v>43407</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>/html/</v>
+      </c>
+      <c r="T33" s="7"/>
+      <c r="U33" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="V33" s="13"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="9">
+        <v>43407</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="7" t="str">
+        <f t="shared" ref="S34:S39" si="3">CONCATENATE(U34,V34)</f>
+        <v>/html/</v>
+      </c>
+      <c r="T34" s="7"/>
+      <c r="U34" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V34" s="13"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="9">
+        <v>43407</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>/html/</v>
+      </c>
+      <c r="T35" s="7"/>
+      <c r="U35" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V35" s="13"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="9">
+        <v>43407</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="7" t="str">
+        <f t="shared" ref="S36" si="4">CONCATENATE(U36,V36)</f>
+        <v>/html/</v>
+      </c>
+      <c r="T36" s="7"/>
+      <c r="U36" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V36" s="13"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="9">
+        <v>43407</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>/html/</v>
+      </c>
+      <c r="T37" s="7"/>
+      <c r="U37" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V37" s="13"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="9">
+        <v>43407</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>/html/</v>
+      </c>
+      <c r="T38" s="7"/>
+      <c r="U38" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V38" s="13"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="9">
+        <v>43407</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>/html/</v>
+      </c>
+      <c r="T39" s="7"/>
+      <c r="U39" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V39" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/resources/data/codinglist.xlsx
+++ b/resources/data/codinglist.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="116">
   <si>
     <t>]}</t>
   </si>
@@ -472,6 +472,10 @@
   </si>
   <si>
     <t>event_view</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3228,7 +3232,7 @@
       </c>
       <c r="B17" s="31" t="str">
         <f>'원본-화면목록'!A14</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>2</v>
@@ -3240,9 +3244,9 @@
       <c r="E17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="32" t="str">
+      <c r="F17" s="32">
         <f>'원본-화면목록'!C14</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>39</v>
@@ -3366,7 +3370,7 @@
       </c>
       <c r="B18" s="54" t="str">
         <f>'원본-화면목록'!A15</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>2</v>
@@ -3378,9 +3382,9 @@
       <c r="E18" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="32" t="str">
+      <c r="F18" s="32">
         <f>'원본-화면목록'!C15</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>39</v>
@@ -3504,7 +3508,7 @@
       </c>
       <c r="B19" s="54" t="str">
         <f>'원본-화면목록'!A16</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>2</v>
@@ -3516,9 +3520,9 @@
       <c r="E19" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="32" t="str">
+      <c r="F19" s="32">
         <f>'원본-화면목록'!C16</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>39</v>
@@ -3642,7 +3646,7 @@
       </c>
       <c r="B20" s="54" t="str">
         <f>'원본-화면목록'!A17</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>2</v>
@@ -3654,9 +3658,9 @@
       <c r="E20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="32" t="str">
+      <c r="F20" s="32">
         <f>'원본-화면목록'!C17</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>39</v>
@@ -3780,7 +3784,7 @@
       </c>
       <c r="B21" s="54" t="str">
         <f>'원본-화면목록'!A18</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>2</v>
@@ -3792,9 +3796,9 @@
       <c r="E21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="32" t="str">
+      <c r="F21" s="32">
         <f>'원본-화면목록'!C18</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>39</v>
@@ -3918,7 +3922,7 @@
       </c>
       <c r="B22" s="54" t="str">
         <f>'원본-화면목록'!A19</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>2</v>
@@ -3930,9 +3934,9 @@
       <c r="E22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="32" t="str">
+      <c r="F22" s="32">
         <f>'원본-화면목록'!C19</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>39</v>
@@ -4056,7 +4060,7 @@
       </c>
       <c r="B23" s="54" t="str">
         <f>'원본-화면목록'!A20</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>2</v>
@@ -4068,9 +4072,9 @@
       <c r="E23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="32" t="str">
+      <c r="F23" s="32">
         <f>'원본-화면목록'!C20</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>39</v>
@@ -4194,7 +4198,7 @@
       </c>
       <c r="B24" s="54" t="str">
         <f>'원본-화면목록'!A21</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>2</v>
@@ -4206,9 +4210,9 @@
       <c r="E24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="32" t="str">
+      <c r="F24" s="32">
         <f>'원본-화면목록'!C21</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>39</v>
@@ -4332,7 +4336,7 @@
       </c>
       <c r="B25" s="54" t="str">
         <f>'원본-화면목록'!A22</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>2</v>
@@ -4344,9 +4348,9 @@
       <c r="E25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="32" t="str">
+      <c r="F25" s="32">
         <f>'원본-화면목록'!C22</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>39</v>
@@ -4470,7 +4474,7 @@
       </c>
       <c r="B26" s="54" t="str">
         <f>'원본-화면목록'!A23</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>2</v>
@@ -4482,9 +4486,9 @@
       <c r="E26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="32" t="str">
+      <c r="F26" s="32">
         <f>'원본-화면목록'!C23</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>39</v>
@@ -4608,7 +4612,7 @@
       </c>
       <c r="B27" s="54" t="str">
         <f>'원본-화면목록'!A24</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>2</v>
@@ -4620,9 +4624,9 @@
       <c r="E27" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="32" t="str">
+      <c r="F27" s="32">
         <f>'원본-화면목록'!C24</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>39</v>
@@ -4746,7 +4750,7 @@
       </c>
       <c r="B28" s="54" t="str">
         <f>'원본-화면목록'!A25</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>2</v>
@@ -4758,9 +4762,9 @@
       <c r="E28" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="32" t="str">
+      <c r="F28" s="32">
         <f>'원본-화면목록'!C25</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>39</v>
@@ -4884,7 +4888,7 @@
       </c>
       <c r="B29" s="54" t="str">
         <f>'원본-화면목록'!A26</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>2</v>
@@ -4896,9 +4900,9 @@
       <c r="E29" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="32" t="str">
+      <c r="F29" s="32">
         <f>'원본-화면목록'!C26</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>39</v>
@@ -6877,8 +6881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7454,13 +7458,13 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B14" s="9">
         <v>43416</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>58</v>
+      <c r="C14" s="9">
+        <v>43413</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>58</v>
@@ -7501,13 +7505,13 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B15" s="9">
         <v>43416</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>58</v>
+      <c r="C15" s="9">
+        <v>43413</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>58</v>
@@ -7544,13 +7548,13 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B16" s="9">
         <v>43416</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>58</v>
+      <c r="C16" s="9">
+        <v>43413</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>58</v>
@@ -7587,13 +7591,13 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B17" s="9">
         <v>43416</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>58</v>
+      <c r="C17" s="9">
+        <v>43413</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>58</v>
@@ -7632,13 +7636,13 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B18" s="9">
         <v>43416</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>58</v>
+      <c r="C18" s="9">
+        <v>43413</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>58</v>
@@ -7675,13 +7679,13 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B19" s="9">
         <v>43416</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>58</v>
+      <c r="C19" s="9">
+        <v>43413</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>58</v>
@@ -7718,13 +7722,13 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B20" s="9">
         <v>43416</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>58</v>
+      <c r="C20" s="9">
+        <v>43413</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>58</v>
@@ -7761,13 +7765,13 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B21" s="9">
         <v>43416</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>58</v>
+      <c r="C21" s="9">
+        <v>43413</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>58</v>
@@ -7806,13 +7810,13 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B22" s="9">
         <v>43416</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>58</v>
+      <c r="C22" s="9">
+        <v>43413</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>58</v>
@@ -7849,13 +7853,13 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B23" s="9">
         <v>43416</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>58</v>
+      <c r="C23" s="9">
+        <v>43413</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>58</v>
@@ -7894,13 +7898,13 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B24" s="9">
         <v>43416</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>58</v>
+      <c r="C24" s="9">
+        <v>43413</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>58</v>
@@ -7937,13 +7941,13 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B25" s="9">
         <v>43416</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>58</v>
+      <c r="C25" s="9">
+        <v>43413</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>58</v>
@@ -7980,13 +7984,13 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B26" s="9">
         <v>43416</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>58</v>
+      <c r="C26" s="9">
+        <v>43413</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>58</v>
